--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDuFlow.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDuFlow.xlsx
@@ -65,10 +65,6 @@
     <t>@i+1</t>
   </si>
   <si>
-    <t>@var ticket=deliveryOrder; var items=deliveryOrderItems;""//初始化代码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>@items[i].</t>
     </r>
@@ -254,6 +250,10 @@
   <si>
     <t>@items[i].comment</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>@var items=deliveryOrderItems;""//初始化代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -904,28 +904,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
